--- a/IPL/Delhi Capitals/Kuldeep Yadav.xlsx
+++ b/IPL/Delhi Capitals/Kuldeep Yadav.xlsx
@@ -445,28 +445,31 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>100.00</v>
+        <v>133.33</v>
       </c>
       <c r="H2" t="str">
-        <v>Punjab Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J2" t="str">
-        <v>May 16 2022</v>
+        <v>April 24 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -492,13 +495,16 @@
         <v>100.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Delhi</v>
       </c>
       <c r="J3" t="str">
-        <v>May 21 2022</v>
+        <v>April 04 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,10 +515,10 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -521,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>0.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Delhi</v>
       </c>
       <c r="J4" t="str">
-        <v>May 16 2022</v>
+        <v>April 11 2023</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 17 runs</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -544,7 +550,7 @@
         <v>Kuldeep Yadav</v>
       </c>
       <c r="C5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -556,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>100.00</v>
+        <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J5" t="str">
-        <v>May 21 2022</v>
+        <v>May 02 2023</v>
       </c>
       <c r="K5" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v/>
       </c>
     </row>
   </sheetData>
